--- a/800.개인프로젝트/02.SPA프로젝트/01.자료수집/통합 문서1.xlsx
+++ b/800.개인프로젝트/02.SPA프로젝트/01.자료수집/통합 문서1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9315" windowHeight="8040" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9315" windowHeight="8040" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="182">
   <si>
     <t>FC900RBT</t>
   </si>
@@ -568,6 +568,30 @@
   </si>
   <si>
     <t>part1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -614,8 +638,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -901,7 +928,7 @@
   <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2155,1252 +2182,1882 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M48" sqref="J1:M48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5" customWidth="1"/>
-    <col min="3" max="3" width="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="1.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="1.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>33</v>
+      <c r="E1">
+        <v>178</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="G1" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="H1" t="s">
-        <v>33</v>
+        <v>177</v>
       </c>
       <c r="I1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+      <c r="J1" t="str">
+        <f>CONCATENATE($I$1,A1,B1,$I$1)</f>
+        <v>"FC900RBTPD"</v>
+      </c>
+      <c r="K1" t="str">
+        <f>CONCATENATE($H$1,$I$1,C1," ",D1,$I$1)</f>
+        <v>,"코랄 블루"</v>
+      </c>
+      <c r="L1" t="str">
+        <f>CONCATENATE($H$1,$I$1,E1,F1,$I$1)</f>
+        <v>,"178000"</v>
+      </c>
+      <c r="M1" t="str">
+        <f>CONCATENATE($H$1,$I$1,G1,$I$1)</f>
+        <v>,"keyboard1"</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
-        <v>33</v>
+      <c r="E2">
+        <v>175</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="G2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2" t="str">
+        <f t="shared" ref="J2:J48" si="0">CONCATENATE($I$1,A2,B2,$I$1)</f>
+        <v>"FC750RBTPD"</v>
+      </c>
+      <c r="K2" t="str">
+        <f>CONCATENATE($H$1,$I$1,C2," ",D2,$I$1)</f>
+        <v>,"코랄 블루"</v>
+      </c>
+      <c r="L2" t="str">
+        <f t="shared" ref="L2:L48" si="1">CONCATENATE($H$1,$I$1,E2,F2,$I$1)</f>
+        <v>,"175000"</v>
+      </c>
+      <c r="M2" t="str">
+        <f t="shared" ref="M2:M48" si="2">CONCATENATE($H$1,$I$1,G2,$I$1)</f>
+        <v>,"keyboard2"</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" t="s">
-        <v>33</v>
+      <c r="E3">
+        <v>178</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="G3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3" t="str">
+        <f t="shared" si="0"/>
+        <v>"FC900RBTPD"</v>
+      </c>
+      <c r="K3" t="str">
+        <f>CONCATENATE($H$1,$I$1,C3," ",D3,$I$1)</f>
+        <v>,"밀크 터쿼이즈"</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" si="1"/>
+        <v>,"178000"</v>
+      </c>
+      <c r="M3" t="str">
+        <f t="shared" si="2"/>
+        <v>,"keyboard3"</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
       <c r="C4" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" t="s">
-        <v>33</v>
+      <c r="E4">
+        <v>175</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="G4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J4" t="str">
+        <f t="shared" si="0"/>
+        <v>"FC750RBTPD"</v>
+      </c>
+      <c r="K4" t="str">
+        <f>CONCATENATE($H$1,$I$1,C4," ",D4,$I$1)</f>
+        <v>,"밀크 터쿼이즈"</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="1"/>
+        <v>,"175000"</v>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" si="2"/>
+        <v>,"keyboard4"</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
       <c r="C5" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
         <v>3</v>
       </c>
-      <c r="F5" t="s">
-        <v>33</v>
+      <c r="E5">
+        <v>178</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="G5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J5" t="str">
+        <f t="shared" si="0"/>
+        <v>"FC900RBTPD"</v>
+      </c>
+      <c r="K5" t="str">
+        <f>CONCATENATE($H$1,$I$1,C5," ",D5,$I$1)</f>
+        <v>,"그레이 블루"</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="1"/>
+        <v>,"178000"</v>
+      </c>
+      <c r="M5" t="str">
+        <f t="shared" si="2"/>
+        <v>,"keyboard5"</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
       <c r="C6" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s">
         <v>3</v>
       </c>
-      <c r="F6" t="s">
-        <v>33</v>
+      <c r="E6">
+        <v>175</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="G6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v>"FC750RBTPD"</v>
+      </c>
+      <c r="K6" t="str">
+        <f>CONCATENATE($H$1,$I$1,C6," ",D6,$I$1)</f>
+        <v>,"그레이 블루"</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="1"/>
+        <v>,"175000"</v>
+      </c>
+      <c r="M6" t="str">
+        <f t="shared" si="2"/>
+        <v>,"keyboard6"</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
       <c r="C7" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" t="s">
         <v>11</v>
       </c>
-      <c r="F7" t="s">
-        <v>33</v>
+      <c r="E7">
+        <v>178</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="G7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v>"FC900RBTPD"</v>
+      </c>
+      <c r="K7" t="str">
+        <f>CONCATENATE($H$1,$I$1,C7," ",D7,$I$1)</f>
+        <v>,"화이트 투톤"</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="1"/>
+        <v>,"178000"</v>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" si="2"/>
+        <v>,"keyboard7"</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
       <c r="C8" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s">
         <v>11</v>
       </c>
-      <c r="F8" t="s">
-        <v>33</v>
+      <c r="E8">
+        <v>175</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="G8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v>"FC750RBTPD"</v>
+      </c>
+      <c r="K8" t="str">
+        <f>CONCATENATE($H$1,$I$1,C8," ",D8,$I$1)</f>
+        <v>,"화이트 투톤"</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="1"/>
+        <v>,"175000"</v>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" si="2"/>
+        <v>,"keyboard8"</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
       <c r="C9" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" t="s">
         <v>12</v>
       </c>
-      <c r="F9" t="s">
-        <v>33</v>
+      <c r="E9">
+        <v>178</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="G9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v>"FC900RBTPD"</v>
+      </c>
+      <c r="K9" t="str">
+        <f>CONCATENATE($H$1,$I$1,C9," ",D9,$I$1)</f>
+        <v>,"그레이 퍼플"</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="1"/>
+        <v>,"178000"</v>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" si="2"/>
+        <v>,"keyboard9"</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>5</v>
       </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
       <c r="C10" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
         <v>12</v>
       </c>
-      <c r="F10" t="s">
-        <v>33</v>
+      <c r="E10">
+        <v>175</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="G10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" t="s">
-        <v>33</v>
-      </c>
-      <c r="I10" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v>"FC750RBTPD"</v>
+      </c>
+      <c r="K10" t="str">
+        <f>CONCATENATE($H$1,$I$1,C10," ",D10,$I$1)</f>
+        <v>,"그레이 퍼플"</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="1"/>
+        <v>,"175000"</v>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="2"/>
+        <v>,"keyboard10"</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>0</v>
       </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
       <c r="C11" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" t="s">
         <v>14</v>
       </c>
-      <c r="F11" t="s">
-        <v>33</v>
+      <c r="E11">
+        <v>178</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="G11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H11" t="s">
-        <v>33</v>
-      </c>
-      <c r="I11" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J11" t="str">
+        <f t="shared" si="0"/>
+        <v>"FC900RBTPD"</v>
+      </c>
+      <c r="K11" t="str">
+        <f>CONCATENATE($H$1,$I$1,C11," ",D11,$I$1)</f>
+        <v>,"라이트 핑크"</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="1"/>
+        <v>,"178000"</v>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" si="2"/>
+        <v>,"keyboard11"</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
       <c r="C12" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" t="s">
         <v>14</v>
       </c>
-      <c r="F12" t="s">
-        <v>33</v>
+      <c r="E12">
+        <v>175</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="G12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I12" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J12" t="str">
+        <f t="shared" si="0"/>
+        <v>"FC750RBTPD"</v>
+      </c>
+      <c r="K12" t="str">
+        <f>CONCATENATE($H$1,$I$1,C12," ",D12,$I$1)</f>
+        <v>,"라이트 핑크"</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="1"/>
+        <v>,"175000"</v>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" si="2"/>
+        <v>,"keyboard12"</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>0</v>
       </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
       <c r="C13" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
         <v>15</v>
       </c>
-      <c r="F13" t="s">
-        <v>33</v>
+      <c r="E13">
+        <v>178</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="G13" t="s">
-        <v>4</v>
-      </c>
-      <c r="H13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I13" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J13" t="str">
+        <f t="shared" si="0"/>
+        <v>"FC900RBTPD"</v>
+      </c>
+      <c r="K13" t="str">
+        <f>CONCATENATE($H$1,$I$1,C13," ",D13,$I$1)</f>
+        <v>,"화이트 민트"</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="1"/>
+        <v>,"178000"</v>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" si="2"/>
+        <v>,"keyboard13"</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>5</v>
       </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
       <c r="C14" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
         <v>15</v>
       </c>
-      <c r="F14" t="s">
-        <v>33</v>
+      <c r="E14">
+        <v>175</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="G14" t="s">
-        <v>6</v>
-      </c>
-      <c r="H14" t="s">
-        <v>33</v>
-      </c>
-      <c r="I14" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J14" t="str">
+        <f t="shared" si="0"/>
+        <v>"FC750RBTPD"</v>
+      </c>
+      <c r="K14" t="str">
+        <f>CONCATENATE($H$1,$I$1,C14," ",D14,$I$1)</f>
+        <v>,"화이트 민트"</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="1"/>
+        <v>,"175000"</v>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" si="2"/>
+        <v>,"keyboard14"</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>0</v>
       </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
       <c r="C15" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" t="s">
         <v>9</v>
       </c>
-      <c r="F15" t="s">
-        <v>33</v>
+      <c r="E15">
+        <v>178</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="G15" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" t="s">
-        <v>33</v>
-      </c>
-      <c r="I15" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J15" t="str">
+        <f t="shared" si="0"/>
+        <v>"FC900RBTPD"</v>
+      </c>
+      <c r="K15" t="str">
+        <f>CONCATENATE($H$1,$I$1,C15," ",D15,$I$1)</f>
+        <v>,"화이트 그레이"</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="1"/>
+        <v>,"178000"</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" si="2"/>
+        <v>,"keyboard15"</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>5</v>
       </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
       <c r="C16" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" t="s">
         <v>9</v>
       </c>
-      <c r="F16" t="s">
-        <v>33</v>
+      <c r="E16">
+        <v>175</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="G16" t="s">
-        <v>6</v>
-      </c>
-      <c r="H16" t="s">
-        <v>33</v>
-      </c>
-      <c r="I16" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J16" t="str">
+        <f t="shared" si="0"/>
+        <v>"FC750RBTPD"</v>
+      </c>
+      <c r="K16" t="str">
+        <f>CONCATENATE($H$1,$I$1,C16," ",D16,$I$1)</f>
+        <v>,"화이트 그레이"</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="1"/>
+        <v>,"175000"</v>
+      </c>
+      <c r="M16" t="str">
+        <f t="shared" si="2"/>
+        <v>,"keyboard16"</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>0</v>
       </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
       <c r="C17" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" t="s">
         <v>3</v>
       </c>
-      <c r="F17" t="s">
-        <v>33</v>
+      <c r="E17">
+        <v>178</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="G17" t="s">
-        <v>4</v>
-      </c>
-      <c r="H17" t="s">
-        <v>33</v>
-      </c>
-      <c r="I17" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J17" t="str">
+        <f t="shared" si="0"/>
+        <v>"FC900RBTPD"</v>
+      </c>
+      <c r="K17" t="str">
+        <f>CONCATENATE($H$1,$I$1,C17," ",D17,$I$1)</f>
+        <v>,"다크 블루"</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="1"/>
+        <v>,"178000"</v>
+      </c>
+      <c r="M17" t="str">
+        <f t="shared" si="2"/>
+        <v>,"keyboard17"</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>5</v>
       </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
       <c r="C18" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" t="s">
         <v>3</v>
       </c>
-      <c r="F18" t="s">
-        <v>33</v>
+      <c r="E18">
+        <v>175</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="G18" t="s">
-        <v>6</v>
-      </c>
-      <c r="H18" t="s">
-        <v>33</v>
-      </c>
-      <c r="I18" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J18" t="str">
+        <f t="shared" si="0"/>
+        <v>"FC750RBTPD"</v>
+      </c>
+      <c r="K18" t="str">
+        <f>CONCATENATE($H$1,$I$1,C18," ",D18,$I$1)</f>
+        <v>,"다크 블루"</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="1"/>
+        <v>,"175000"</v>
+      </c>
+      <c r="M18" t="str">
+        <f t="shared" si="2"/>
+        <v>,"keyboard18"</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>0</v>
       </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
       <c r="C19" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" t="s">
         <v>3</v>
       </c>
-      <c r="F19" t="s">
-        <v>33</v>
+      <c r="E19">
+        <v>178</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="G19" t="s">
-        <v>4</v>
-      </c>
-      <c r="H19" t="s">
-        <v>33</v>
-      </c>
-      <c r="I19" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J19" t="str">
+        <f t="shared" si="0"/>
+        <v>"FC900RBTPD"</v>
+      </c>
+      <c r="K19" t="str">
+        <f>CONCATENATE($H$1,$I$1,C19," ",D19,$I$1)</f>
+        <v>,"차콜 블루"</v>
+      </c>
+      <c r="L19" t="str">
+        <f t="shared" si="1"/>
+        <v>,"178000"</v>
+      </c>
+      <c r="M19" t="str">
+        <f t="shared" si="2"/>
+        <v>,"keyboard19"</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>5</v>
       </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
       <c r="C20" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" t="s">
         <v>3</v>
       </c>
-      <c r="F20" t="s">
-        <v>33</v>
+      <c r="E20">
+        <v>175</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="G20" t="s">
-        <v>6</v>
-      </c>
-      <c r="H20" t="s">
-        <v>33</v>
-      </c>
-      <c r="I20" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J20" t="str">
+        <f t="shared" si="0"/>
+        <v>"FC750RBTPD"</v>
+      </c>
+      <c r="K20" t="str">
+        <f>CONCATENATE($H$1,$I$1,C20," ",D20,$I$1)</f>
+        <v>,"차콜 블루"</v>
+      </c>
+      <c r="L20" t="str">
+        <f t="shared" si="1"/>
+        <v>,"175000"</v>
+      </c>
+      <c r="M20" t="str">
+        <f t="shared" si="2"/>
+        <v>,"keyboard20"</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>0</v>
       </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
       <c r="C21" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" t="s">
         <v>19</v>
       </c>
-      <c r="F21" t="s">
-        <v>33</v>
+      <c r="E21">
+        <v>178</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="G21" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" t="s">
-        <v>33</v>
-      </c>
-      <c r="I21" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J21" t="str">
+        <f t="shared" si="0"/>
+        <v>"FC900RBTPD"</v>
+      </c>
+      <c r="K21" t="str">
+        <f>CONCATENATE($H$1,$I$1,C21," ",D21,$I$1)</f>
+        <v>,"애쉬 옐로우"</v>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" si="1"/>
+        <v>,"178000"</v>
+      </c>
+      <c r="M21" t="str">
+        <f t="shared" si="2"/>
+        <v>,"keyboard21"</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>5</v>
       </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
       <c r="C22" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" t="s">
         <v>19</v>
       </c>
-      <c r="F22" t="s">
-        <v>33</v>
+      <c r="E22">
+        <v>175</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="G22" t="s">
-        <v>6</v>
-      </c>
-      <c r="H22" t="s">
-        <v>33</v>
-      </c>
-      <c r="I22" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J22" t="str">
+        <f t="shared" si="0"/>
+        <v>"FC750RBTPD"</v>
+      </c>
+      <c r="K22" t="str">
+        <f>CONCATENATE($H$1,$I$1,C22," ",D22,$I$1)</f>
+        <v>,"애쉬 옐로우"</v>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" si="1"/>
+        <v>,"175000"</v>
+      </c>
+      <c r="M22" t="str">
+        <f t="shared" si="2"/>
+        <v>,"keyboard22"</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>0</v>
       </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
       <c r="C23" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" t="s">
         <v>20</v>
       </c>
-      <c r="F23" t="s">
-        <v>33</v>
+      <c r="E23">
+        <v>178</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="G23" t="s">
-        <v>4</v>
-      </c>
-      <c r="H23" t="s">
-        <v>33</v>
-      </c>
-      <c r="I23" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J23" t="str">
+        <f t="shared" si="0"/>
+        <v>"FC900RBTPD"</v>
+      </c>
+      <c r="K23" t="str">
+        <f>CONCATENATE($H$1,$I$1,C23," ",D23,$I$1)</f>
+        <v>,"화이트 블루스타"</v>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" si="1"/>
+        <v>,"178000"</v>
+      </c>
+      <c r="M23" t="str">
+        <f t="shared" si="2"/>
+        <v>,"keyboard23"</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>5</v>
       </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
       <c r="C24" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" t="s">
         <v>20</v>
       </c>
-      <c r="F24" t="s">
-        <v>33</v>
+      <c r="E24">
+        <v>175</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="G24" t="s">
-        <v>6</v>
-      </c>
-      <c r="H24" t="s">
-        <v>33</v>
-      </c>
-      <c r="I24" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J24" t="str">
+        <f t="shared" si="0"/>
+        <v>"FC750RBTPD"</v>
+      </c>
+      <c r="K24" t="str">
+        <f>CONCATENATE($H$1,$I$1,C24," ",D24,$I$1)</f>
+        <v>,"화이트 블루스타"</v>
+      </c>
+      <c r="L24" t="str">
+        <f t="shared" si="1"/>
+        <v>,"175000"</v>
+      </c>
+      <c r="M24" t="str">
+        <f t="shared" si="2"/>
+        <v>,"keyboard24"</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>0</v>
       </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
       <c r="C25" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" t="s">
         <v>21</v>
       </c>
-      <c r="F25" t="s">
-        <v>33</v>
+      <c r="E25">
+        <v>178</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="G25" t="s">
-        <v>4</v>
-      </c>
-      <c r="H25" t="s">
-        <v>33</v>
-      </c>
-      <c r="I25" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J25" t="str">
+        <f t="shared" si="0"/>
+        <v>"FC900RBTPD"</v>
+      </c>
+      <c r="K25" t="str">
+        <f>CONCATENATE($H$1,$I$1,C25," ",D25,$I$1)</f>
+        <v>,"블랙 "</v>
+      </c>
+      <c r="L25" t="str">
+        <f t="shared" si="1"/>
+        <v>,"178000"</v>
+      </c>
+      <c r="M25" t="str">
+        <f t="shared" si="2"/>
+        <v>,"keyboard25"</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>5</v>
       </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
       <c r="C26" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26" t="s">
         <v>21</v>
       </c>
-      <c r="F26" t="s">
-        <v>33</v>
+      <c r="E26">
+        <v>175</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="G26" t="s">
-        <v>6</v>
-      </c>
-      <c r="H26" t="s">
-        <v>33</v>
-      </c>
-      <c r="I26" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J26" t="str">
+        <f t="shared" si="0"/>
+        <v>"FC750RBTPD"</v>
+      </c>
+      <c r="K26" t="str">
+        <f>CONCATENATE($H$1,$I$1,C26," ",D26,$I$1)</f>
+        <v>,"블랙 "</v>
+      </c>
+      <c r="L26" t="str">
+        <f t="shared" si="1"/>
+        <v>,"175000"</v>
+      </c>
+      <c r="M26" t="str">
+        <f t="shared" si="2"/>
+        <v>,"keyboard26"</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>0</v>
       </c>
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
       <c r="C27" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E27" t="s">
         <v>10</v>
       </c>
-      <c r="F27" t="s">
-        <v>33</v>
+      <c r="E27">
+        <v>178</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="G27" t="s">
-        <v>4</v>
-      </c>
-      <c r="H27" t="s">
-        <v>33</v>
-      </c>
-      <c r="I27" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J27" t="str">
+        <f t="shared" si="0"/>
+        <v>"FC900RBTPD"</v>
+      </c>
+      <c r="K27" t="str">
+        <f>CONCATENATE($H$1,$I$1,C27," ",D27,$I$1)</f>
+        <v>,"스웨디시 화이트"</v>
+      </c>
+      <c r="L27" t="str">
+        <f t="shared" si="1"/>
+        <v>,"178000"</v>
+      </c>
+      <c r="M27" t="str">
+        <f t="shared" si="2"/>
+        <v>,"keyboard27"</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>5</v>
       </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
       <c r="C28" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28" t="s">
         <v>10</v>
       </c>
-      <c r="F28" t="s">
-        <v>33</v>
+      <c r="E28">
+        <v>175</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="G28" t="s">
-        <v>6</v>
-      </c>
-      <c r="H28" t="s">
-        <v>33</v>
-      </c>
-      <c r="I28" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J28" t="str">
+        <f t="shared" si="0"/>
+        <v>"FC750RBTPD"</v>
+      </c>
+      <c r="K28" t="str">
+        <f>CONCATENATE($H$1,$I$1,C28," ",D28,$I$1)</f>
+        <v>,"스웨디시 화이트"</v>
+      </c>
+      <c r="L28" t="str">
+        <f t="shared" si="1"/>
+        <v>,"175000"</v>
+      </c>
+      <c r="M28" t="str">
+        <f t="shared" si="2"/>
+        <v>,"keyboard28"</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>23</v>
       </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
       <c r="C29" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" t="s">
         <v>11</v>
       </c>
-      <c r="F29" t="s">
-        <v>33</v>
+      <c r="E29">
+        <v>178</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="G29" t="s">
-        <v>4</v>
-      </c>
-      <c r="H29" t="s">
-        <v>33</v>
-      </c>
-      <c r="I29" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J29" t="str">
+        <f t="shared" si="0"/>
+        <v>"NP900RBTPD"</v>
+      </c>
+      <c r="K29" t="str">
+        <f>CONCATENATE($H$1,$I$1,C29," ",D29,$I$1)</f>
+        <v>,"화이트 투톤"</v>
+      </c>
+      <c r="L29" t="str">
+        <f t="shared" si="1"/>
+        <v>,"178000"</v>
+      </c>
+      <c r="M29" t="str">
+        <f t="shared" si="2"/>
+        <v>,"keyboard29"</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>23</v>
       </c>
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
       <c r="C30" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D30" t="s">
-        <v>17</v>
-      </c>
-      <c r="E30" t="s">
         <v>3</v>
       </c>
-      <c r="F30" t="s">
-        <v>33</v>
+      <c r="E30">
+        <v>178</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="G30" t="s">
-        <v>4</v>
-      </c>
-      <c r="H30" t="s">
-        <v>33</v>
-      </c>
-      <c r="I30" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J30" t="str">
+        <f t="shared" si="0"/>
+        <v>"NP900RBTPD"</v>
+      </c>
+      <c r="K30" t="str">
+        <f>CONCATENATE($H$1,$I$1,C30," ",D30,$I$1)</f>
+        <v>,"차콜 블루"</v>
+      </c>
+      <c r="L30" t="str">
+        <f t="shared" si="1"/>
+        <v>,"178000"</v>
+      </c>
+      <c r="M30" t="str">
+        <f t="shared" si="2"/>
+        <v>,"keyboard30"</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>23</v>
       </c>
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
       <c r="C31" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" t="s">
         <v>3</v>
       </c>
-      <c r="F31" t="s">
-        <v>33</v>
+      <c r="E31">
+        <v>178</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="G31" t="s">
-        <v>4</v>
-      </c>
-      <c r="H31" t="s">
-        <v>33</v>
-      </c>
-      <c r="I31" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J31" t="str">
+        <f t="shared" si="0"/>
+        <v>"NP900RBTPD"</v>
+      </c>
+      <c r="K31" t="str">
+        <f>CONCATENATE($H$1,$I$1,C31," ",D31,$I$1)</f>
+        <v>,"그레이 블루"</v>
+      </c>
+      <c r="L31" t="str">
+        <f t="shared" si="1"/>
+        <v>,"178000"</v>
+      </c>
+      <c r="M31" t="str">
+        <f t="shared" si="2"/>
+        <v>,"keyboard31"</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>24</v>
       </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
       <c r="C32" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" t="s">
         <v>3</v>
       </c>
-      <c r="F32" t="s">
-        <v>33</v>
+      <c r="E32">
+        <v>175</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="G32" t="s">
-        <v>6</v>
-      </c>
-      <c r="H32" t="s">
-        <v>33</v>
-      </c>
-      <c r="I32" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J32" t="str">
+        <f t="shared" si="0"/>
+        <v>"NP750RBTPD"</v>
+      </c>
+      <c r="K32" t="str">
+        <f>CONCATENATE($H$1,$I$1,C32," ",D32,$I$1)</f>
+        <v>,"그레이 블루"</v>
+      </c>
+      <c r="L32" t="str">
+        <f t="shared" si="1"/>
+        <v>,"175000"</v>
+      </c>
+      <c r="M32" t="str">
+        <f t="shared" si="2"/>
+        <v>,"keyboard32"</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>82</v>
       </c>
+      <c r="B33" t="s">
+        <v>1</v>
+      </c>
       <c r="C33" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" t="s">
         <v>11</v>
       </c>
-      <c r="F33" t="s">
-        <v>33</v>
+      <c r="E33">
+        <v>182</v>
+      </c>
+      <c r="F33" s="1">
+        <v>500</v>
       </c>
       <c r="G33" t="s">
-        <v>32</v>
-      </c>
-      <c r="H33" t="s">
-        <v>33</v>
-      </c>
-      <c r="I33" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J33" t="str">
+        <f t="shared" si="0"/>
+        <v>"FC980MBTPD"</v>
+      </c>
+      <c r="K33" t="str">
+        <f>CONCATENATE($H$1,$I$1,C33," ",D33,$I$1)</f>
+        <v>,"화이트 투톤"</v>
+      </c>
+      <c r="L33" t="str">
+        <f t="shared" si="1"/>
+        <v>,"182500"</v>
+      </c>
+      <c r="M33" t="str">
+        <f t="shared" si="2"/>
+        <v>,"keyboard33"</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>82</v>
       </c>
+      <c r="B34" t="s">
+        <v>1</v>
+      </c>
       <c r="C34" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" t="s">
         <v>20</v>
       </c>
-      <c r="F34" t="s">
-        <v>33</v>
+      <c r="E34">
+        <v>182</v>
+      </c>
+      <c r="F34" s="1">
+        <v>500</v>
       </c>
       <c r="G34" t="s">
-        <v>32</v>
-      </c>
-      <c r="H34" t="s">
-        <v>33</v>
-      </c>
-      <c r="I34" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J34" t="str">
+        <f t="shared" si="0"/>
+        <v>"FC980MBTPD"</v>
+      </c>
+      <c r="K34" t="str">
+        <f>CONCATENATE($H$1,$I$1,C34," ",D34,$I$1)</f>
+        <v>,"화이트 블루스타"</v>
+      </c>
+      <c r="L34" t="str">
+        <f t="shared" si="1"/>
+        <v>,"182500"</v>
+      </c>
+      <c r="M34" t="str">
+        <f t="shared" si="2"/>
+        <v>,"keyboard34"</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>82</v>
       </c>
+      <c r="B35" t="s">
+        <v>1</v>
+      </c>
       <c r="C35" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D35" t="s">
-        <v>18</v>
-      </c>
-      <c r="E35" t="s">
         <v>19</v>
       </c>
-      <c r="F35" t="s">
-        <v>33</v>
+      <c r="E35">
+        <v>182</v>
+      </c>
+      <c r="F35" s="1">
+        <v>500</v>
       </c>
       <c r="G35" t="s">
-        <v>32</v>
-      </c>
-      <c r="H35" t="s">
-        <v>33</v>
-      </c>
-      <c r="I35" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J35" t="str">
+        <f t="shared" si="0"/>
+        <v>"FC980MBTPD"</v>
+      </c>
+      <c r="K35" t="str">
+        <f>CONCATENATE($H$1,$I$1,C35," ",D35,$I$1)</f>
+        <v>,"애쉬 옐로우"</v>
+      </c>
+      <c r="L35" t="str">
+        <f t="shared" si="1"/>
+        <v>,"182500"</v>
+      </c>
+      <c r="M35" t="str">
+        <f t="shared" si="2"/>
+        <v>,"keyboard35"</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>82</v>
       </c>
+      <c r="B36" t="s">
+        <v>1</v>
+      </c>
       <c r="C36" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36" t="s">
         <v>3</v>
       </c>
-      <c r="F36" t="s">
-        <v>33</v>
+      <c r="E36">
+        <v>182</v>
+      </c>
+      <c r="F36" s="1">
+        <v>500</v>
       </c>
       <c r="G36" t="s">
-        <v>32</v>
-      </c>
-      <c r="H36" t="s">
-        <v>33</v>
-      </c>
-      <c r="I36" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J36" t="str">
+        <f t="shared" si="0"/>
+        <v>"FC980MBTPD"</v>
+      </c>
+      <c r="K36" t="str">
+        <f>CONCATENATE($H$1,$I$1,C36," ",D36,$I$1)</f>
+        <v>,"그레이 블루"</v>
+      </c>
+      <c r="L36" t="str">
+        <f t="shared" si="1"/>
+        <v>,"182500"</v>
+      </c>
+      <c r="M36" t="str">
+        <f t="shared" si="2"/>
+        <v>,"keyboard36"</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>25</v>
       </c>
+      <c r="B37" t="s">
+        <v>1</v>
+      </c>
       <c r="C37" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37" t="s">
         <v>11</v>
       </c>
-      <c r="F37" t="s">
-        <v>33</v>
+      <c r="E37">
+        <v>155</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>179</v>
       </c>
       <c r="G37" t="s">
-        <v>26</v>
-      </c>
-      <c r="H37" t="s">
-        <v>33</v>
-      </c>
-      <c r="I37" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J37" t="str">
+        <f t="shared" si="0"/>
+        <v>"FC980MPD"</v>
+      </c>
+      <c r="K37" t="str">
+        <f>CONCATENATE($H$1,$I$1,C37," ",D37,$I$1)</f>
+        <v>,"화이트 투톤"</v>
+      </c>
+      <c r="L37" t="str">
+        <f t="shared" si="1"/>
+        <v>,"155000"</v>
+      </c>
+      <c r="M37" t="str">
+        <f t="shared" si="2"/>
+        <v>,"keyboard37"</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>25</v>
       </c>
+      <c r="B38" t="s">
+        <v>1</v>
+      </c>
       <c r="C38" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
-      </c>
-      <c r="E38" t="s">
         <v>20</v>
       </c>
-      <c r="F38" t="s">
-        <v>33</v>
+      <c r="E38">
+        <v>155</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>179</v>
       </c>
       <c r="G38" t="s">
-        <v>26</v>
-      </c>
-      <c r="H38" t="s">
-        <v>33</v>
-      </c>
-      <c r="I38" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J38" t="str">
+        <f t="shared" si="0"/>
+        <v>"FC980MPD"</v>
+      </c>
+      <c r="K38" t="str">
+        <f>CONCATENATE($H$1,$I$1,C38," ",D38,$I$1)</f>
+        <v>,"화이트 블루스타"</v>
+      </c>
+      <c r="L38" t="str">
+        <f t="shared" si="1"/>
+        <v>,"155000"</v>
+      </c>
+      <c r="M38" t="str">
+        <f t="shared" si="2"/>
+        <v>,"keyboard38"</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>25</v>
       </c>
+      <c r="B39" t="s">
+        <v>1</v>
+      </c>
       <c r="C39" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D39" t="s">
-        <v>18</v>
-      </c>
-      <c r="E39" t="s">
         <v>19</v>
       </c>
-      <c r="F39" t="s">
-        <v>33</v>
+      <c r="E39">
+        <v>155</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>179</v>
       </c>
       <c r="G39" t="s">
-        <v>26</v>
-      </c>
-      <c r="H39" t="s">
-        <v>33</v>
-      </c>
-      <c r="I39" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J39" t="str">
+        <f t="shared" si="0"/>
+        <v>"FC980MPD"</v>
+      </c>
+      <c r="K39" t="str">
+        <f>CONCATENATE($H$1,$I$1,C39," ",D39,$I$1)</f>
+        <v>,"애쉬 옐로우"</v>
+      </c>
+      <c r="L39" t="str">
+        <f t="shared" si="1"/>
+        <v>,"155000"</v>
+      </c>
+      <c r="M39" t="str">
+        <f t="shared" si="2"/>
+        <v>,"keyboard39"</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>25</v>
       </c>
+      <c r="B40" t="s">
+        <v>1</v>
+      </c>
       <c r="C40" t="s">
-        <v>1</v>
-      </c>
-      <c r="D40" t="s">
         <v>21</v>
       </c>
-      <c r="F40" t="s">
-        <v>33</v>
+      <c r="E40">
+        <v>155</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>180</v>
       </c>
       <c r="G40" t="s">
-        <v>26</v>
-      </c>
-      <c r="H40" t="s">
-        <v>33</v>
-      </c>
-      <c r="I40" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J40" t="str">
+        <f t="shared" si="0"/>
+        <v>"FC980MPD"</v>
+      </c>
+      <c r="K40" t="str">
+        <f>CONCATENATE($H$1,$I$1,C40," ",D40,$I$1)</f>
+        <v>,"블랙 "</v>
+      </c>
+      <c r="L40" t="str">
+        <f t="shared" si="1"/>
+        <v>,"155000"</v>
+      </c>
+      <c r="M40" t="str">
+        <f t="shared" si="2"/>
+        <v>,"keyboard40"</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>25</v>
       </c>
+      <c r="B41" t="s">
+        <v>1</v>
+      </c>
       <c r="C41" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
-      </c>
-      <c r="E41" t="s">
         <v>3</v>
       </c>
-      <c r="F41" t="s">
-        <v>33</v>
+      <c r="E41">
+        <v>155</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>179</v>
       </c>
       <c r="G41" t="s">
-        <v>26</v>
-      </c>
-      <c r="H41" t="s">
-        <v>33</v>
-      </c>
-      <c r="I41" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J41" t="str">
+        <f t="shared" si="0"/>
+        <v>"FC980MPD"</v>
+      </c>
+      <c r="K41" t="str">
+        <f>CONCATENATE($H$1,$I$1,C41," ",D41,$I$1)</f>
+        <v>,"그레이 블루"</v>
+      </c>
+      <c r="L41" t="str">
+        <f t="shared" si="1"/>
+        <v>,"155000"</v>
+      </c>
+      <c r="M41" t="str">
+        <f t="shared" si="2"/>
+        <v>,"keyboard41"</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>27</v>
       </c>
-      <c r="D42" t="s">
+      <c r="C42" t="s">
         <v>10</v>
       </c>
-      <c r="F42" t="s">
-        <v>33</v>
+      <c r="E42">
+        <v>265</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>181</v>
       </c>
       <c r="G42" t="s">
-        <v>28</v>
-      </c>
-      <c r="H42" t="s">
-        <v>33</v>
-      </c>
-      <c r="I42" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J42" t="str">
+        <f t="shared" si="0"/>
+        <v>"FC980C"</v>
+      </c>
+      <c r="K42" t="str">
+        <f>CONCATENATE($H$1,$I$1,C42," ",D42,$I$1)</f>
+        <v>,"화이트 "</v>
+      </c>
+      <c r="L42" t="str">
+        <f t="shared" si="1"/>
+        <v>,"265000"</v>
+      </c>
+      <c r="M42" t="str">
+        <f t="shared" si="2"/>
+        <v>,"keyboard42"</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>29</v>
       </c>
+      <c r="B43" t="s">
+        <v>1</v>
+      </c>
       <c r="C43" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
-      </c>
-      <c r="E43" t="s">
         <v>11</v>
       </c>
-      <c r="F43" t="s">
-        <v>33</v>
+      <c r="E43">
+        <v>149</v>
+      </c>
+      <c r="F43" s="1">
+        <v>500</v>
       </c>
       <c r="G43" t="s">
-        <v>30</v>
-      </c>
-      <c r="H43" t="s">
-        <v>33</v>
-      </c>
-      <c r="I43" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J43" t="str">
+        <f t="shared" si="0"/>
+        <v>"FC900RPD"</v>
+      </c>
+      <c r="K43" t="str">
+        <f>CONCATENATE($H$1,$I$1,C43," ",D43,$I$1)</f>
+        <v>,"화이트 투톤"</v>
+      </c>
+      <c r="L43" t="str">
+        <f t="shared" si="1"/>
+        <v>,"149500"</v>
+      </c>
+      <c r="M43" t="str">
+        <f t="shared" si="2"/>
+        <v>,"keyboard43"</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>29</v>
       </c>
+      <c r="B44" t="s">
+        <v>1</v>
+      </c>
       <c r="C44" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
-      </c>
-      <c r="E44" t="s">
         <v>9</v>
       </c>
-      <c r="F44" t="s">
-        <v>33</v>
+      <c r="E44">
+        <v>149</v>
+      </c>
+      <c r="F44" s="1">
+        <v>500</v>
       </c>
       <c r="G44" t="s">
-        <v>30</v>
-      </c>
-      <c r="H44" t="s">
-        <v>33</v>
-      </c>
-      <c r="I44" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J44" t="str">
+        <f t="shared" si="0"/>
+        <v>"FC900RPD"</v>
+      </c>
+      <c r="K44" t="str">
+        <f>CONCATENATE($H$1,$I$1,C44," ",D44,$I$1)</f>
+        <v>,"화이트 그레이"</v>
+      </c>
+      <c r="L44" t="str">
+        <f t="shared" si="1"/>
+        <v>,"149500"</v>
+      </c>
+      <c r="M44" t="str">
+        <f t="shared" si="2"/>
+        <v>,"keyboard44"</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>29</v>
       </c>
+      <c r="B45" t="s">
+        <v>1</v>
+      </c>
       <c r="C45" t="s">
-        <v>1</v>
-      </c>
-      <c r="D45" t="s">
         <v>21</v>
       </c>
-      <c r="F45" t="s">
-        <v>33</v>
+      <c r="E45">
+        <v>149</v>
+      </c>
+      <c r="F45" s="1">
+        <v>500</v>
       </c>
       <c r="G45" t="s">
-        <v>30</v>
-      </c>
-      <c r="H45" t="s">
-        <v>33</v>
-      </c>
-      <c r="I45" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J45" t="str">
+        <f t="shared" si="0"/>
+        <v>"FC900RPD"</v>
+      </c>
+      <c r="K45" t="str">
+        <f>CONCATENATE($H$1,$I$1,C45," ",D45,$I$1)</f>
+        <v>,"블랙 "</v>
+      </c>
+      <c r="L45" t="str">
+        <f t="shared" si="1"/>
+        <v>,"149500"</v>
+      </c>
+      <c r="M45" t="str">
+        <f t="shared" si="2"/>
+        <v>,"keyboard45"</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>29</v>
       </c>
+      <c r="B46" t="s">
+        <v>1</v>
+      </c>
       <c r="C46" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D46" t="s">
-        <v>16</v>
-      </c>
-      <c r="E46" t="s">
         <v>3</v>
       </c>
-      <c r="F46" t="s">
-        <v>33</v>
+      <c r="E46">
+        <v>149</v>
+      </c>
+      <c r="F46" s="1">
+        <v>500</v>
       </c>
       <c r="G46" t="s">
-        <v>30</v>
-      </c>
-      <c r="H46" t="s">
-        <v>33</v>
-      </c>
-      <c r="I46" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J46" t="str">
+        <f t="shared" si="0"/>
+        <v>"FC900RPD"</v>
+      </c>
+      <c r="K46" t="str">
+        <f>CONCATENATE($H$1,$I$1,C46," ",D46,$I$1)</f>
+        <v>,"다크 블루"</v>
+      </c>
+      <c r="L46" t="str">
+        <f t="shared" si="1"/>
+        <v>,"149500"</v>
+      </c>
+      <c r="M46" t="str">
+        <f t="shared" si="2"/>
+        <v>,"keyboard46"</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>29</v>
       </c>
+      <c r="B47" t="s">
+        <v>1</v>
+      </c>
       <c r="C47" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
-      </c>
-      <c r="E47" t="s">
         <v>3</v>
       </c>
-      <c r="F47" t="s">
-        <v>33</v>
+      <c r="E47">
+        <v>149</v>
+      </c>
+      <c r="F47" s="1">
+        <v>500</v>
       </c>
       <c r="G47" t="s">
-        <v>30</v>
-      </c>
-      <c r="H47" t="s">
-        <v>33</v>
-      </c>
-      <c r="I47" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J47" t="str">
+        <f t="shared" si="0"/>
+        <v>"FC900RPD"</v>
+      </c>
+      <c r="K47" t="str">
+        <f>CONCATENATE($H$1,$I$1,C47," ",D47,$I$1)</f>
+        <v>,"그레이 블루"</v>
+      </c>
+      <c r="L47" t="str">
+        <f t="shared" si="1"/>
+        <v>,"149500"</v>
+      </c>
+      <c r="M47" t="str">
+        <f t="shared" si="2"/>
+        <v>,"keyboard47"</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>29</v>
       </c>
+      <c r="B48" t="s">
+        <v>31</v>
+      </c>
       <c r="C48" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D48" t="s">
-        <v>21</v>
-      </c>
-      <c r="E48" t="s">
         <v>12</v>
       </c>
-      <c r="F48" t="s">
-        <v>33</v>
+      <c r="E48">
+        <v>149</v>
+      </c>
+      <c r="F48" s="1">
+        <v>500</v>
       </c>
       <c r="G48" t="s">
-        <v>30</v>
-      </c>
-      <c r="H48" t="s">
-        <v>33</v>
-      </c>
-      <c r="I48" t="s">
         <v>81</v>
+      </c>
+      <c r="J48" t="str">
+        <f t="shared" si="0"/>
+        <v>"FC900ROE"</v>
+      </c>
+      <c r="K48" t="str">
+        <f>CONCATENATE($H$1,$I$1,C48," ",D48,$I$1)</f>
+        <v>,"블랙 퍼플"</v>
+      </c>
+      <c r="L48" t="str">
+        <f t="shared" si="1"/>
+        <v>,"149500"</v>
+      </c>
+      <c r="M48" t="str">
+        <f t="shared" si="2"/>
+        <v>,"keyboard48"</v>
       </c>
     </row>
   </sheetData>
@@ -3414,8 +4071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:F79"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
